--- a/scientific/tecmath.xlsx
+++ b/scientific/tecmath.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
-    <t xml:space="preserve">g'day welcome to the techmath channel i'm josh in this video we're going to be having a look at the best four tricks for mentally squaring numbers in your head so let's go now we're going to start with a nice easy general squaring technique for numbers under 100 and this is going to form the basis of a couple of the tricks that have come so it's really worth paying attention to so let's just launch into this say i want to square the number 23 so 23 squared and we'll see what that equals now this is a pretty simple one to do once you know the trick so the first thing we're going to do is we are going to look at the unit's number here and we're going to see how far that is from the nearest tens number the nearest ten's number is 20 so this is 3 from the nearest tens number and we're going to use this 3 a fair bit the first thing we're going to do is we are going to take 3 from 23 here so 23 take 3 we're going to get this answer of 20. the next thing we're going to do is we're going to add 3 to 23 so 3 plus 23 is 26. now what we're going to do is we are going to multiply these guys and this is not too hard to do because it's literally 26 times 2 times 10. it's a pretty easy one 26 times 2 is 52 times 10 is 520 so 520 now where the zero goes i'm just going to leave a blank space and this is now what we're going to do to get the final number we're going to square this distance number here this 3. so 3 squared is 9. the answer is 529 pretty simple right so just to recap how did we do that so first off we looked for the nearest tens number which is 20 and we saw how far 23 was from it which was 3 and then we took 3 from 23 we've got 20 and then we added 3. we got 26 we multiplied these two numbers and then we added this distance squared sort of thing so it's pretty simple it's a fairly standard technique we're going to use again and again and again just with a few little tweaks here so let's go through another example a bit harder now so for our next example let's go 48 squared and we'll do a similar sort of technique here we're going to look at the nearest tens number which is 50 and we're going to see that 48 is 2 from 50. so 2 is going to be the number we're going to use a fair bit the first thing we do is we take 2 from 48 so we get 46. we add 2 to 48 and we get 50 and now we're going to multiply these guys 46 times 50 that's not too bad that is going to be 2 300. so we're going to leave those spaces there where we have those zeros for the units number what we're going to do is we're going to square this number so 2 times 2 is equal to 4. so a 4 is going to go in here so that's just going to be 0 4. our answer 2 304 easy right so that's the first trick for squaring and that's for any number under 100 but what about and this is where we're going to get to the second trick what about if we have it's another number under 100 but say i was to consider the number like 75 and i wanted to square that now you might say okay well is 80 closer or is 70 close and how do we deal with that well so funnily enough numbers ending and 5 are even easier to square than numbers not ending in 5 and this is how we do these in this case what we do is we look at the tens number okay so the tens number here is a 7 for 70 and then we look at the number after that and we're just going to multiply this so 7 times 8 and this is going to give us the first part of our answer which is 56 the last thing we do is we basically add a 25 to this which is 5 squared 5 6 2 5. now really what just went on then so this is the trick that's all we got our answer but what just went on now as you can see if i was to say the nearest number i could say okay well say i was to add 5 to it you can see that if i add 5 to it i'm going to end up with okay so first off i take 5 from it i'm going to go 70 i'm going to add 5 to it i'm going to go by 80 and that's where our seven eights are 7 8 of 56 and then we just end up with 5 squared which is the 25 on the end so it's the same sort of trick again but a simpler one okay let's just go through another example with this okay we'll go through a couple of these what about we do 45 squared so nice and simple let's just have a look here and go okay the next number up from four is five so four fives are 20 and then we just put 5 squared on the end 25 2025 really basic right i won't even bother to rub that one out i'll just put a nice another simple one up here bit of a bigger one there what about 115 squared now what are we going to get for this okay so if we have a look at this entire part here 11 and the next number up is 12 11 times 12 is 132 132 and once again we just put 25 on the end right so there we go that is the second trick okay so we've done the first trick which is looking at any number under 100 and now we've just looked specifically at numbers ending in five let's have a look at a third trick so for our third trick what about squaring numbers near 100 well there is a nice easy way to do these as i'll show you in my third great squaring trick and an example here is 107 squared now the way that we do these is as follows now you're going to see a very very similar pattern first off how far is this to the nearest tens number let's not go to the nearest tens number let's go to an easy tens number which is 100 and it is 7 from 100 so what do we do first off we subtract seven from 107 we get a hundred and this is going to be multiplied by seven plus one hundred and seven which is a hundred and fourteen hey that's really really easy right that's just going to be one one four with these two blank spaces for where the zeros could go now what we do is we square this particular number like we've done every other time seven squared is equal to forty nine so there you go eleven thousand four hundred and forty nine pretty simple right what about i do another one which is above 100 then i'm going to go to 1 which is just below 100. so what about for our next example we do 105 squared and we see what this equals now 105 squared we can treat this like a number that ends in 5 we could go ok the next number after 10 here is equal to 11 10 times 11 is 110 with 25 on the end or what we could do is we could say okay this number is 5 from 100 so 105 plus 5 is equal to 110 and then we square this number and we get the same result either either way it's a pretty simple thing right okay what about i go a number under 100 what about we look at the number 97 and we're going to square that and we can do this pretty quickly this number is 3 from 100. so first thing we're going to do is we're going to subtract 3 from this and we're going to get the number 94 this is going to multiply by 97 plus 3 which is 100 so 94 times 100 well that's pretty simple that's just going to be 94 with two spaces after it then what we do is we square this distance number again so 3 times 3 is equal to 9. that's our answer 9409 hey like i said it's just a derivative of the same idea each time and it's a pretty simple idea it's not always as easy for every single number and once you get right above 100 like you can get into 120 or 150 it does get more and more complex just as you'd expect okay i'm not going to pretend there's a silver bullet with those that makes it really really simple once the numbers get more complicated you know the mental gymnastics also gets a little bit more complicated now for the fourth particular trick well i'll show it to you right now now the fourth squaring trick is a nice easy but not particularly useful squaring trick but i do like it and it's this one here say we consider one squared well that is equal to one one times one is equal to one what about eleven squared well eleven times 11 is equal to 121 okay now 111 squared well i don't know put this into your calculator i'll work this out this is one two three two one you can sort of see here one two three two one we go up we go down there's three numbers here and that's the point we sort of hit here so we could keep going on this one and we could say okay what is one one one one one squared we have five ones what's the answer this going to be where we're going to go up to the number five one two three four five and then back down to one the answer will be one two three four five four three two one and that's just a great little trick like i said not largely useful but it's a cool little trick nonetheless for squaring you know numbers with one you know very very specific like i said not particularly useful all right so hopefully you're paying attention there and i'll tell you what you better be because now i'm going to give you a test just to see how you go so i'm going to give you a number of these squared questions see how you go use any technique you've just seen there to try and solve them so the very very first one what about we do 100 and 6 squared the next one let's do 65 squared the next one let's go 27 squared and the next one what about 1 1 1 1 1 one one squared and we'll see how that goes that's a pretty big one i reckon you'll be all right so pause the video give these a go but i reckon you'll be able to do these just as fast as i can answer them right now so the very very first one 106 squared so this is 6 from 100 so we're going to add that on top of so 106 plus 6 this is equal to 112 and then we're going to square 6 here six sixes 36 that's 11 200 and thirty six sixty five squared nice and basic all right the next number after six here's a seven seven sixes forty two forty two with a twenty five on the end four thousand two hundred and twenty the next one is 27 squared now i've adapted this one a tiny little bit because to tell you the truth i'd prefer to multiply by 20s than i do by 30s they're not much harder but it's just something i personally prefer so let's do that so i am 7 above 20 here so let's multiply 20 multiplied by whatever 7 plus 27 is which is 34. interesting to see 20s are really easy to multiply for we're just it was doubling okay with a 10 on the end so this is basically going to be 680 and then we're just going to square seven seven sevens are 49 so we're going to add 49 to our answer all this you can do in your head the answer will be 7 two nine all right and last of all one one one one one one one that number there is one million one hundred and eleven thousand one hundred and eleven and we're squaring that we have one two three four five six seven ones so we're gonna go up one two three four five six seven and now we're gonna go down again six five four 2 1. and that's a really really big number that we have there let's see if we can read this okay what we have here is 1 trillion 234 billion 567 million six hundred and fifty four thousand three hundred and twenty one okay so anyway so how did you go with those hopefully that was not too bad okay you can see that you can kind of adapt as you go along with these as long as you've got those key ideas going anyway they are my favorite four ways of squaring numbers and i hope you like them i hope you've seen these before maybe i'll just give you a bit of a refresher either the first time you've seen them well you know they're pretty cool right anyway if you like this video give us a thumbs up and put in the comments what you thought of the video thank you for watching and we'll see you next time alright bye </t>
+    <t>content</t>
   </si>
   <si>
     <t xml:space="preserve">g'day welcome to techmath channel i'm josh well here's today's problem and it's pretty self-explanatory it's a crossword so a couple of conditions do apply uh we're going to be using the numbers 1 through 9 to put into the blank spaces here to make these equations correct and the order of operations do not apply for these equations so this number plus this number divided by this number will give us the answer of 2 for example so pause this video if you'd like to give this problem a try and when you're ready to see the solution and see how i solved it start it up again [Music] so time's up all done maybe that was easy or maybe you had a few cross words while you did this by the way i know it's a terrible joke but that sort of leads into what i'm going to be asking i'm going to be chasing down the world's best math jokes uh or maybe the world's worst math jokes depending on your point of view so if you have any of these can you please put them in the comments it would be great i'll go through a few of these after the solution but i want your ones anyway so let's go through the solution here first thing i did is i figured i was going to be looking at one of the equations that had either multiplication or division in them because these have a whole lot more limited numbers that you can put in them so we have this equation here this multiplied by this divided by this equals 2 this equation here where we have a division and this equation here where we have this multiplication here and i ended up starting with this particular equation here you're going to notice that we've got a number that we're going to multiply by this number to get 7. so you're going to see that the only numbers that we can multiply to get 7 are going to be 1 and 7. so either this number minus this number equals 1 or this number minus this number equals 7 and this will be a 1 or a 7. so which way is it going to be well if we have a look at this equation here it gives us a bit of a hint because this number multiplied by this number plus this number equals 22 if this is a 1 we can't multiply by any number even if we multiply by a 9 it's not going to be big enough to actually then add to another number to equal 22 this would be 1 times 9 which would equal 9 plus 8 would still be too short so this number here has to be the 7. okay so what now so now i went to this equation here now let's consider the different numbers that could go in here 7 times 1 7 times 1 is 7 but this number here cannot be big enough to make the answer 22 so that answer can't be 1. 7 times 2 well that's okay 7 times 2 is 14 so we could go 7 times 2 which would equal 14 and that would make this number here have to be an 8 and that would work ok we could also get 7 times 3 that would work 7 times 3 is 21 and this then would have to be a 1. we couldn't go to 7 4s because 7 4 is 28 too big so the numbers that are going to go in here are either going to be a 2 or a 3 and then an 8 or a one that's going to go in here so which one is it well we can work that out through a bit of logic here if we consider this number was a one here it would mean that these two numbers here would have to have a difference that would be equal to twelve this number minus this number would be equal to 12 but you're going to say hey that actually can't occur because we don't have numbers that are big enough here for that to occur so this number here cannot be a one so therefore we have to have this number here being the eight so let's put it in this would have to be the eight and this number here would have to be the two and we've got now three and now we have three numbers in our equation here we have seven two and eight so how do we go through and solve the next part well if we consider now this equation here we're looking for a number that divides by two to give us two it would mean that we had to have these two numbers here adding up to well four because four divided by two is equal to 2. so in here we only have 2 possibilities that add up to 4 that is going to be the numbers of 3 and 1. so let's put that equation to the side for a minute and come back to it and i'm now going to have a look at this equation here we know that this equation here these two numbers have to have a difference of 5. this number minus this number has to equal 5 because then we add 8 to it and get 13. so what numbers could we have now we have a whole bunch of numbers that are accounted for at the moment let's jot them down we have the following numbers which are accounted for we have seven we have two we have eight and we also have one and we have three so let's have a look at what numbers we could put a difference of five here in first ones we could do is we could say we could use the numbers nine and four they have a difference of five so this could be nine and this could be four we could use eight and three but that's can't be used because that's already been used we can't use seven and two those guys have already been used and we can't use 6 and 1 because we've used the 1 down here so these numbers here have to be 9 and 4. this has to be a 9 and this has to be a 4. they're the only ones left that actually fit the bill so we've got our numbers here so now how can we solve this particular part here well we know that this part here has to be a three or a one but this can't be the one here because this would have to be an eighteen eighteen times one divided by nine equals two can't be it so this number here would have to be the 3 and this number here has to be the 1. what numbers do we have left well what number do we multiply by 3 to get 18 because 18 divided by 9 equals 2 that would be 6. there you go we've got that number here and 6 minus what number times 7 equals 7 so 6 minus 5 because that's a 1 and that would have to be 1 times 7 equals seven let's just check this here five plus one equals six minus four equals two and there you go the crossword's been solved how did you like that all right did you go okay with that one did you do it differently maybe you did it better than i did or faster i'm going to expect at least one comment that says i just randomly put the numbers in and got it straight away i don't even know what you're talking about so i'd really love to see that particular comment and i expect to see a whole bunch of thumbs up with that as well so anyway my particular math jokes that we're going to have first off we have that all this time never a crossword what about this one when somebody's saying they're cold you say to them hey go stand in the corner it's 90 degrees there 90 degrees hey hey 90 degrees in the corner not a bad one uh what about we talk about two parallel lines where they had so much in common they were going the same direction but tragically they never met yeah anyway what i would like is i would like your best math dad jokes and i want to be coming out with these in a few videos i want to chuck these in as much as i can because i think they're awfully good or goodly awful i don't know what it is anyway if you like this video please give me a thumbs up and a big shout out to my subscribers and my patrons and we'll see you next time stay well and stay safe see you then bye you </t>
@@ -1024,8 +1024,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1041,7 +1049,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1049,12 +1057,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,14 +1375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A275"/>
+  <dimension ref="A1:A268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1365,1333 +1391,1333 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
         <v>267</v>
       </c>
     </row>
